--- a/biology/Botanique/Lääninpuisto/Lääninpuisto.xlsx
+++ b/biology/Botanique/Lääninpuisto/Lääninpuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A4%C3%A4ninpuisto</t>
+          <t>Lääninpuisto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc régional (en finnois : Lääninpuisto) est un parc situé à côté du centre-ville de Kouvola en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc régional (en finnois : Lääninpuisto) est un parc situé à côté du centre-ville de Kouvola en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A4%C3%A4ninpuisto</t>
+          <t>Lääninpuisto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lääninpuisto est situé à côté de l'église centrale de Kouvola.
 Le parc a été construit en 1973 sur le site d'anciennes maisons individuelles et de la route Ylisen Viipurintie.
-Il y a trois mémoriaux de guerre dans le parc: la pierre commémorative du Régiment de Finlande centrale, la pierre commémorative du Régiment d'Infanterie 25 de la guerre de Continuation (JR 25) et le Monument aux héros tombés pendant la guerre[3].
+Il y a trois mémoriaux de guerre dans le parc: la pierre commémorative du Régiment de Finlande centrale, la pierre commémorative du Régiment d'Infanterie 25 de la guerre de Continuation (JR 25) et le Monument aux héros tombés pendant la guerre.
 </t>
         </is>
       </c>
